--- a/notebook/design_encoder/improve_performance/find_best_gpu/gpu_specs.xlsx
+++ b/notebook/design_encoder/improve_performance/find_best_gpu/gpu_specs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t xml:space="preserve">Device</t>
   </si>
@@ -91,13 +91,16 @@
     <t xml:space="preserve">A100</t>
   </si>
   <si>
+    <t xml:space="preserve">L40S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovelace</t>
+  </si>
+  <si>
     <t xml:space="preserve">RTX 3060</t>
   </si>
   <si>
     <t xml:space="preserve">RTX 4060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lovelace</t>
   </si>
   <si>
     <t xml:space="preserve">RTX 4060 Ti</t>
@@ -207,8 +210,8 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -337,7 +340,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -640,21 +643,51 @@
         <v>1935</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>18176</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>568</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>91.6</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>362</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>864</v>
+      </c>
+    </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="J11" s="0"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2" t="n">
@@ -675,7 +708,7 @@
       <c r="H12" s="2" t="n">
         <v>51.2</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>12</v>
       </c>
       <c r="J12" s="1" t="n">
@@ -683,21 +716,19 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="J13" s="0"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2023</v>
@@ -717,7 +748,7 @@
       <c r="H14" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>8</v>
       </c>
       <c r="J14" s="1" t="n">
@@ -725,43 +756,43 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>4352</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>22.1</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>288</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2023</v>
@@ -781,7 +812,7 @@
       <c r="H16" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>12</v>
       </c>
       <c r="J16" s="1" t="n">
@@ -789,16 +820,16 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4" t="n">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>7680</v>
       </c>
       <c r="E17" s="2" t="n">
@@ -813,7 +844,7 @@
       <c r="H17" s="2" t="n">
         <v>160.4</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="1" t="n">
         <v>12</v>
       </c>
       <c r="J17" s="1" t="n">
@@ -822,10 +853,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2022</v>
@@ -845,7 +876,7 @@
       <c r="H18" s="2" t="n">
         <v>330.3</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <v>24</v>
       </c>
       <c r="J18" s="1" t="n">
@@ -853,43 +884,43 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>6144</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>19.2</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <v>306.8</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>153.4</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="1" t="n">
         <v>960</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2023</v>
@@ -909,7 +940,7 @@
       <c r="H21" s="1" t="n">
         <v>728.5</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="1" t="n">
         <v>48</v>
       </c>
       <c r="J21" s="1" t="n">
